--- a/02_Data/Meta data files/Survey EuroFund.xlsx
+++ b/02_Data/Meta data files/Survey EuroFund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\Meta data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725220FE-965F-4E55-A866-35DD483FC3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E1E3C-7752-4EBB-AA13-EB26B15E92AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t xml:space="preserve">Time series data </t>
   </si>
@@ -265,16 +265,16 @@
     <t xml:space="preserve">NUTS1 and not NUTS2 </t>
   </si>
   <si>
-    <t xml:space="preserve">Not captured by the survey </t>
-  </si>
-  <si>
-    <t>NUTS1 and not NUTS3</t>
-  </si>
-  <si>
-    <t>NUTS1 and not NUTS4</t>
-  </si>
-  <si>
     <t>Y: Survey</t>
+  </si>
+  <si>
+    <t>NUTS0</t>
+  </si>
+  <si>
+    <t>NUTS2</t>
+  </si>
+  <si>
+    <t>NUTS1 and not NUTS2</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -403,7 +403,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +621,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -653,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -765,9 +764,7 @@
       <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -776,15 +773,17 @@
       <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>77</v>
+      <c r="F8" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -794,15 +793,17 @@
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>77</v>
+      <c r="F9" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -822,7 +823,7 @@
         <v>74</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -832,15 +833,17 @@
       <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>77</v>
+      <c r="F11" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -850,15 +853,17 @@
       <c r="B12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>77</v>
+      <c r="F12" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -878,7 +883,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -898,7 +903,7 @@
         <v>74</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -918,7 +923,7 @@
         <v>74</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -938,7 +943,7 @@
         <v>74</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -948,15 +953,17 @@
       <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>77</v>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -976,7 +983,7 @@
         <v>74</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -986,15 +993,17 @@
       <c r="B19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>77</v>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1011,9 +1020,7 @@
       <c r="E20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -1032,7 +1039,7 @@
         <v>74</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,9 +1056,7 @@
       <c r="E22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -1060,15 +1065,17 @@
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>77</v>
+      <c r="F23" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1078,15 +1085,17 @@
       <c r="B24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>77</v>
+      <c r="F24" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1096,15 +1105,17 @@
       <c r="B25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>77</v>
+      <c r="F25" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1114,15 +1125,17 @@
       <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>77</v>
+      <c r="F26" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1142,7 +1155,7 @@
         <v>74</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1159,9 +1172,7 @@
       <c r="E28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -1179,8 +1190,8 @@
       <c r="E29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>77</v>
+      <c r="F29" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1190,15 +1201,17 @@
       <c r="B30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>77</v>
+      <c r="F30" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1218,7 +1231,7 @@
         <v>74</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1238,7 +1251,7 @@
         <v>74</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1248,15 +1261,17 @@
       <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>77</v>
+      <c r="F33" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1266,15 +1281,17 @@
       <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>77</v>
+      <c r="F34" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1294,7 +1311,7 @@
         <v>74</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1314,7 +1331,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1334,7 +1351,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
